--- a/Inventory Order Book.xlsx
+++ b/Inventory Order Book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>S.No.</t>
   </si>
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -83,6 +83,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -90,31 +97,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,91 +211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,19 +233,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,85 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,73 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,32 +427,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,15 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -505,11 +475,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,20 +500,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -550,127 +550,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,13 +1009,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.28571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.57142857142857" style="1" customWidth="1"/>
@@ -1086,6 +1086,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>26214369</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44234</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Inventory Order Book.xlsx
+++ b/Inventory Order Book.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>S.No.</t>
   </si>
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -74,6 +74,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -82,6 +96,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -89,55 +111,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,22 +136,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,14 +167,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -211,8 +174,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,61 +239,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,115 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +432,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,21 +471,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,16 +511,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,15 +529,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,130 +547,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,13 +1009,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.28571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.57142857142857" style="1" customWidth="1"/>
@@ -1106,6 +1106,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>26396216</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44257</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Inventory Order Book.xlsx
+++ b/Inventory Order Book.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SIM" sheetId="1" r:id="rId1"/>
+    <sheet name="Phone" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>S.No.</t>
   </si>
@@ -38,22 +39,60 @@
   </si>
   <si>
     <t>Connectivity</t>
+  </si>
+  <si>
+    <t>Fund transfered for phone</t>
+  </si>
+  <si>
+    <t>Transaction Id</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Cash from Magadh</t>
+  </si>
+  <si>
+    <t>AXIR210586970004</t>
+  </si>
+  <si>
+    <t>Net from Axis</t>
+  </si>
+  <si>
+    <t>AXIR210597327835</t>
+  </si>
+  <si>
+    <t>AXIR210607602459</t>
+  </si>
+  <si>
+    <t>AXIR210682362776</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -75,14 +114,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,6 +150,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -104,26 +182,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,7 +199,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,66 +222,27 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -218,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,193 +266,211 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,15 +481,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,6 +495,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,15 +523,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -486,26 +534,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,20 +552,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,144 +604,168 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1011,8 +1092,8 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1027,22 +1108,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1056,7 +1137,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="12">
         <v>44531</v>
       </c>
       <c r="E2" s="1">
@@ -1076,7 +1157,7 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="12">
         <v>44201</v>
       </c>
       <c r="E3" s="1">
@@ -1096,7 +1177,7 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="12">
         <v>44234</v>
       </c>
       <c r="E4" s="1">
@@ -1116,7 +1197,7 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="12">
         <v>44257</v>
       </c>
       <c r="E5" s="1">
@@ -1130,4 +1211,176 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="6.28571428571429" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.85714285714286" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5714285714286" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.71428571428571" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.1428571428571" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.8571428571429" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.71428571428571" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.57142857142857" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.14285714285714" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.28571428571429" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.7142857142857" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.5714285714286" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.71428571428571" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.8571428571429" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.14285714285714" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:14">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10">
+        <f>SUM(M3:M2225)</f>
+        <v>648100</v>
+      </c>
+    </row>
+    <row r="2" spans="10:14">
+      <c r="J2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="10:14">
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="11">
+        <v>44254</v>
+      </c>
+      <c r="M3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="10:14">
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="11">
+        <v>44254</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="10:14">
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="11">
+        <v>44255</v>
+      </c>
+      <c r="M5" s="2">
+        <v>190000</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="10:14">
+      <c r="J6" s="2">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="11">
+        <v>44256</v>
+      </c>
+      <c r="M6" s="2">
+        <v>150000</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="10:14">
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="11">
+        <v>44264</v>
+      </c>
+      <c r="M7" s="2">
+        <v>198100</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="12:12">
+      <c r="L8" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Inventory Order Book.xlsx
+++ b/Inventory Order Book.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>S.No.</t>
   </si>
@@ -41,9 +41,33 @@
     <t>Connectivity</t>
   </si>
   <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Total Qty:</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
     <t>Fund transfered for phone</t>
   </si>
   <si>
+    <t>Reference Id</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Total Amt Debited</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Transaction Id</t>
   </si>
   <si>
@@ -53,13 +77,28 @@
     <t>Mode</t>
   </si>
   <si>
+    <t>112111078008282</t>
+  </si>
+  <si>
+    <t>Jio Phone</t>
+  </si>
+  <si>
     <t>Cash from Magadh</t>
   </si>
   <si>
+    <t>112111078008420</t>
+  </si>
+  <si>
     <t>AXIR210586970004</t>
   </si>
   <si>
     <t>Net from Axis</t>
+  </si>
+  <si>
+    <t>112111078008695</t>
+  </si>
+  <si>
+    <t>100 Jio Phone</t>
   </si>
   <si>
     <t>AXIR210597327835</t>
@@ -77,10 +116,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -113,6 +152,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -136,17 +183,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,6 +205,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -166,98 +258,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +311,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -284,7 +341,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,181 +497,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +546,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,15 +616,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -586,10 +637,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,171 +655,171 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1108,22 +1159,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1137,7 +1188,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>44531</v>
       </c>
       <c r="E2" s="1">
@@ -1157,7 +1208,7 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>44201</v>
       </c>
       <c r="E3" s="1">
@@ -1177,7 +1228,7 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>44234</v>
       </c>
       <c r="E4" s="1">
@@ -1197,7 +1248,7 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>44257</v>
       </c>
       <c r="E5" s="1">
@@ -1216,54 +1267,54 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="6.28571428571429" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.85714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5714285714286" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.71428571428571" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.1428571428571" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.8571428571429" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.71428571428571" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.57142857142857" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.14285714285714" style="4" customWidth="1"/>
-    <col min="10" max="10" width="6.28571428571429" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.7142857142857" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.5714285714286" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.71428571428571" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.8571428571429" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="6.28571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.57142857142857" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.28571428571429" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.71428571428571" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.8571428571429" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
+    <row r="1" s="1" customFormat="1" spans="2:14">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3">
+        <f>N1-G1</f>
+        <v>6074</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4">
+        <f>SUM(E3:E530)</f>
+        <v>430</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5">
+        <f>SUM(G3:G538)</f>
+        <v>642026</v>
+      </c>
+      <c r="I1" s="2"/>
       <c r="J1" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -1273,108 +1324,209 @@
         <v>648100</v>
       </c>
     </row>
-    <row r="2" spans="10:14">
-      <c r="J2" s="5" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>11</v>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="10:14">
-      <c r="J3" s="2">
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="11">
+      <c r="B3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8">
+        <v>44255</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1">
+        <v>70</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G6" si="0">E3*F3</f>
+        <v>105000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
         <v>44254</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>100000</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>12</v>
+      <c r="N3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="10:14">
-      <c r="J4" s="2">
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="B4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8">
+        <v>44256</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>130</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>195000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="8">
         <v>44254</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>10000</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>14</v>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="10:14">
-      <c r="J5" s="2">
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="11">
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8">
+        <v>44257</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1">
+        <v>147026</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="8">
         <v>44255</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>190000</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>14</v>
+      <c r="N5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="10:14">
-      <c r="J6" s="2">
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="11">
+      <c r="C6" s="8">
+        <v>44265</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>130</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>195000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8">
         <v>44256</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>150000</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>14</v>
+      <c r="N6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="10:14">
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>5</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="8">
         <v>44264</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>198100</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="12:12">
-      <c r="L8" s="11"/>
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Inventory Order Book.xlsx
+++ b/Inventory Order Book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>S.No.</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Connectivity</t>
+  </si>
+  <si>
+    <t>Device</t>
   </si>
   <si>
     <t>Balance</t>
@@ -115,10 +118,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="23">
@@ -152,6 +155,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -167,8 +200,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,24 +210,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,92 +255,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,133 +344,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,49 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,21 +535,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,8 +549,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -579,6 +569,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,6 +612,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -621,23 +635,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,130 +658,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,13 +1144,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.28571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.57142857142857" style="1" customWidth="1"/>
@@ -1255,7 +1258,27 @@
         <v>10000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>26636773</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11">
+        <v>44288</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1292,7 @@
   <sheetPr/>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1292,21 +1315,21 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:14">
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3">
         <f>N1-G1</f>
         <v>6074</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="4">
         <f>SUM(E3:E530)</f>
         <v>430</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" s="5">
         <f>SUM(G3:G538)</f>
@@ -1314,7 +1337,7 @@
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -1329,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
@@ -1338,31 +1361,31 @@
         <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1370,13 +1393,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="8">
         <v>44255</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1">
         <v>70</v>
@@ -1398,7 +1421,7 @@
         <v>100000</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1406,13 +1429,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="8">
         <v>44256</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1">
         <v>130</v>
@@ -1428,7 +1451,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="8">
         <v>44254</v>
@@ -1437,7 +1460,7 @@
         <v>10000</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1445,13 +1468,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="8">
         <v>44257</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -1463,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" s="8">
         <v>44255</v>
@@ -1472,7 +1495,7 @@
         <v>190000</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1483,7 +1506,7 @@
         <v>44265</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1">
         <v>130</v>
@@ -1499,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="8">
         <v>44256</v>
@@ -1508,7 +1531,7 @@
         <v>150000</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="10:14">
@@ -1516,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L7" s="8">
         <v>44264</v>
@@ -1525,7 +1548,7 @@
         <v>198100</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Inventory Order Book.xlsx
+++ b/Inventory Order Book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Vijay</author>
+  </authors>
+  <commentList>
+    <comment ref="H5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+On Tykon ledger showing
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>S.No.</t>
   </si>
@@ -111,6 +144,9 @@
   </si>
   <si>
     <t>AXIR210682362776</t>
+  </si>
+  <si>
+    <t>AXIR210964996618</t>
   </si>
 </sst>
 </file>
@@ -118,13 +154,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,62 +191,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +216,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -239,9 +291,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,48 +306,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -344,187 +391,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,11 +585,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,38 +653,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,162 +682,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,7 +1193,7 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1290,13 +1337,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="6.28571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.4285714285714" style="1" customWidth="1"/>
@@ -1319,7 +1366,7 @@
       </c>
       <c r="C1" s="3">
         <f>N1-G1</f>
-        <v>6074</v>
+        <v>145074</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -1344,7 +1391,7 @@
       <c r="M1" s="9"/>
       <c r="N1" s="10">
         <f>SUM(M3:M2225)</f>
-        <v>648100</v>
+        <v>787100</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1482,6 +1529,9 @@
       <c r="G5" s="1">
         <v>147026</v>
       </c>
+      <c r="H5" s="1">
+        <v>148075</v>
+      </c>
       <c r="J5" s="1">
         <v>3</v>
       </c>
@@ -1518,6 +1568,9 @@
         <f t="shared" si="0"/>
         <v>195000</v>
       </c>
+      <c r="H6" s="1">
+        <v>192498</v>
+      </c>
       <c r="J6" s="1">
         <v>4</v>
       </c>
@@ -1548,6 +1601,23 @@
         <v>198100</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="10:14">
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="8">
+        <v>44292</v>
+      </c>
+      <c r="M8" s="1">
+        <v>139000</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1557,5 +1627,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Inventory Order Book.xlsx
+++ b/Inventory Order Book.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>S.No.</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>AXIR210607602459</t>
+  </si>
+  <si>
+    <t>150 Jio Phone</t>
   </si>
   <si>
     <t>AXIR210682362776</t>
@@ -154,9 +157,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -201,7 +204,65 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,67 +277,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -291,8 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,6 +307,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -313,23 +331,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,19 +394,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,163 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,16 +589,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,26 +623,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,8 +645,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,17 +675,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,19 +711,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,106 +732,106 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1340,7 +1343,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -1366,21 +1369,21 @@
       </c>
       <c r="C1" s="3">
         <f>N1-G1</f>
-        <v>145074</v>
+        <v>-79926</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="4">
         <f>SUM(E3:E530)</f>
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="5">
         <f>SUM(G3:G538)</f>
-        <v>642026</v>
+        <v>867026</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="9" t="s">
@@ -1587,12 +1590,28 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="10:14">
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1">
+        <v>150</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G7" s="1">
+        <f>E7*F7</f>
+        <v>225000</v>
+      </c>
       <c r="J7" s="1">
         <v>5</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" s="8">
         <v>44264</v>
@@ -1609,7 +1628,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L8" s="8">
         <v>44292</v>

--- a/Inventory Order Book.xlsx
+++ b/Inventory Order Book.xlsx
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="25">
@@ -194,6 +194,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -202,67 +232,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,29 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -307,6 +271,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -323,6 +302,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -336,6 +329,18 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -343,11 +348,6 @@
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -394,19 +394,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,151 +562,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +585,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -606,62 +636,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,12 +661,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,130 +708,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -1458,7 +1458,7 @@
         <v>1500</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G6" si="0">E3*F3</f>
+        <f t="shared" ref="G3:G7" si="0">E3*F3</f>
         <v>105000</v>
       </c>
       <c r="J3" s="1">
@@ -1594,6 +1594,9 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7" s="8">
+        <v>44292</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v>1500</v>
       </c>
       <c r="G7" s="1">
-        <f>E7*F7</f>
+        <f t="shared" si="0"/>
         <v>225000</v>
       </c>
       <c r="J7" s="1">

--- a/Inventory Order Book.xlsx
+++ b/Inventory Order Book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>S.No.</t>
   </si>
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="25">
@@ -194,8 +194,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,37 +204,66 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,19 +277,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,75 +294,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -348,6 +343,11 @@
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -394,25 +394,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,55 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,97 +562,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +585,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,6 +612,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -614,6 +632,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,24 +677,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -661,44 +685,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,130 +708,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,13 +1194,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.28571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.57142857142857" style="1" customWidth="1"/>
@@ -1331,6 +1331,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1342,7 +1353,7 @@
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/Inventory Order Book.xlsx
+++ b/Inventory Order Book.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>S.No.</t>
   </si>
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="25">
@@ -194,6 +194,49 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -202,45 +245,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,13 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -294,7 +301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,13 +309,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,13 +394,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +520,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,151 +544,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +585,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -636,15 +645,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -690,15 +690,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,130 +708,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,13 +1194,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.28571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.57142857142857" style="1" customWidth="1"/>
@@ -1331,15 +1331,41 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D7" s="11">
+        <v>44289</v>
+      </c>
       <c r="E7" s="1">
         <v>10000</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>27000641</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11">
+        <v>44313</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1351,13 +1377,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.28571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.4285714285714" style="1" customWidth="1"/>
@@ -1380,7 +1406,7 @@
       </c>
       <c r="C1" s="3">
         <f>N1-G1</f>
-        <v>-79926</v>
+        <v>66847</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -1405,7 +1431,7 @@
       <c r="M1" s="9"/>
       <c r="N1" s="10">
         <f>SUM(M3:M2225)</f>
-        <v>787100</v>
+        <v>933873</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1651,6 +1677,34 @@
         <v>139000</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="10:14">
+      <c r="J9" s="1">
+        <v>7</v>
+      </c>
+      <c r="L9" s="8">
+        <v>44338</v>
+      </c>
+      <c r="M9" s="1">
+        <v>75000</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="10:14">
+      <c r="J10" s="1">
+        <v>8</v>
+      </c>
+      <c r="L10" s="8">
+        <v>44342</v>
+      </c>
+      <c r="M10" s="1">
+        <v>71773</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Inventory Order Book.xlsx
+++ b/Inventory Order Book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>S.No.</t>
   </si>
@@ -149,7 +149,19 @@
     <t>AXIR210682362776</t>
   </si>
   <si>
+    <t>112211078003482 </t>
+  </si>
+  <si>
+    <t>75 Jio Phone</t>
+  </si>
+  <si>
     <t>AXIR210964996618</t>
+  </si>
+  <si>
+    <t>115314249510</t>
+  </si>
+  <si>
+    <t>For i-tel mobile</t>
   </si>
 </sst>
 </file>
@@ -157,11 +169,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -194,14 +206,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -215,46 +235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,6 +259,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -300,6 +290,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -307,8 +327,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,23 +337,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,13 +406,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,19 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,145 +574,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,24 +597,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,6 +635,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,15 +702,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,130 +720,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -860,7 +872,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1196,7 +1208,7 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1377,10 +1389,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1406,21 +1418,21 @@
       </c>
       <c r="C1" s="3">
         <f>N1-G1</f>
-        <v>66847</v>
+        <v>-10223</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="4">
         <f>SUM(E3:E530)</f>
-        <v>580</v>
+        <v>655</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="5">
         <f>SUM(G3:G538)</f>
-        <v>867026</v>
+        <v>979526</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="9" t="s">
@@ -1431,7 +1443,7 @@
       <c r="M1" s="9"/>
       <c r="N1" s="10">
         <f>SUM(M3:M2225)</f>
-        <v>933873</v>
+        <v>969303</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1663,12 +1675,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="10:14">
+    <row r="8" spans="2:14">
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44345</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1">
+        <v>75</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G8" s="1">
+        <f>E8*F8</f>
+        <v>112500</v>
+      </c>
       <c r="J8" s="1">
         <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L8" s="8">
         <v>44292</v>
@@ -1706,6 +1737,26 @@
       </c>
       <c r="N10" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="10:15">
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="8">
+        <v>44349</v>
+      </c>
+      <c r="M11" s="1">
+        <v>35430</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Inventory Order Book.xlsx
+++ b/Inventory Order Book.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
-    <sheet name="Phone" sheetId="2" r:id="rId2"/>
+    <sheet name="Jio Phone" sheetId="2" r:id="rId2"/>
+    <sheet name="iTel Phone" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -47,8 +48,41 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Vijay</author>
+  </authors>
+  <commentList>
+    <comment ref="H5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+On Tykon ledger showing
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>S.No.</t>
   </si>
@@ -156,6 +190,12 @@
   </si>
   <si>
     <t>AXIR210964996618</t>
+  </si>
+  <si>
+    <t>Commission</t>
+  </si>
+  <si>
+    <t>iTel phone</t>
   </si>
   <si>
     <t>115314249510</t>
@@ -170,9 +210,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -206,6 +246,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -215,21 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,6 +284,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -259,8 +314,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +352,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -282,31 +367,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,36 +385,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,7 +401,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,13 +446,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDD56E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,169 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,6 +643,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -625,54 +710,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -683,6 +720,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,10 +748,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,134 +766,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,7 +918,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -880,6 +926,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -940,6 +995,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00DD56E2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1253,7 +1313,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="14">
         <v>44531</v>
       </c>
       <c r="E2" s="1">
@@ -1273,7 +1333,7 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="14">
         <v>44201</v>
       </c>
       <c r="E3" s="1">
@@ -1293,7 +1353,7 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="14">
         <v>44234</v>
       </c>
       <c r="E4" s="1">
@@ -1313,7 +1373,7 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="14">
         <v>44257</v>
       </c>
       <c r="E5" s="1">
@@ -1333,7 +1393,7 @@
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="14">
         <v>44288</v>
       </c>
       <c r="E6" s="1">
@@ -1350,7 +1410,7 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="14">
         <v>44289</v>
       </c>
       <c r="E7" s="1">
@@ -1370,7 +1430,7 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="14">
         <v>44313</v>
       </c>
       <c r="E8" s="1">
@@ -1389,10 +1449,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1418,7 +1478,7 @@
       </c>
       <c r="C1" s="3">
         <f>N1-G1</f>
-        <v>-10223</v>
+        <v>-37500</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -1433,6 +1493,391 @@
       <c r="G1" s="5">
         <f>SUM(G3:G538)</f>
         <v>979526</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10">
+        <f>SUM(M3:M555)</f>
+        <v>942026</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8">
+        <v>44255</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1">
+        <v>70</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G8" si="0">E3*F3</f>
+        <v>105000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>44254</v>
+      </c>
+      <c r="M3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8">
+        <v>44256</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1">
+        <v>130</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>195000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="8">
+        <v>44254</v>
+      </c>
+      <c r="M4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8">
+        <v>44257</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1">
+        <v>147026</v>
+      </c>
+      <c r="H5" s="1">
+        <v>148075</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="8">
+        <v>44255</v>
+      </c>
+      <c r="M5" s="1">
+        <v>190000</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>44265</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1">
+        <v>130</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>195000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>192498</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="8">
+        <v>44256</v>
+      </c>
+      <c r="M6" s="1">
+        <v>150000</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
+        <v>44292</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1">
+        <v>150</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>225000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="8">
+        <v>44264</v>
+      </c>
+      <c r="M7" s="1">
+        <v>198100</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44345</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1">
+        <v>75</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>112500</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="8">
+        <v>44292</v>
+      </c>
+      <c r="M8" s="1">
+        <v>139000</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="10:14">
+      <c r="J9" s="1">
+        <v>7</v>
+      </c>
+      <c r="L9" s="8">
+        <v>44338</v>
+      </c>
+      <c r="M9" s="1">
+        <v>75000</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="10:14">
+      <c r="J10" s="1">
+        <v>8</v>
+      </c>
+      <c r="L10" s="8">
+        <v>44342</v>
+      </c>
+      <c r="M10" s="1">
+        <v>71773</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="10:15">
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11" s="12">
+        <v>3227</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="13:14">
+      <c r="M12" s="13">
+        <v>4926</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.28571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.57142857142857" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.28571428571429" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.71428571428571" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.8571428571429" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="2:14">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3">
+        <f>N1-G1</f>
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4">
+        <f>SUM(E3:E530)</f>
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5">
+        <f>SUM(G3:G538)</f>
+        <v>35430</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="9" t="s">
@@ -1443,10 +1888,10 @@
       <c r="M1" s="9"/>
       <c r="N1" s="10">
         <f>SUM(M3:M2225)</f>
-        <v>969303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>35430</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1471,6 +1916,7 @@
       <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1487,277 +1933,83 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="C3" s="8">
-        <v>44255</v>
+        <v>44349</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
-        <v>1500</v>
+        <v>3543</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G7" si="0">E3*F3</f>
-        <v>105000</v>
-      </c>
+        <f>E3*F3</f>
+        <v>35430</v>
+      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="1">
         <v>1</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L3" s="8">
-        <v>44254</v>
+        <v>44349</v>
       </c>
       <c r="M3" s="1">
-        <v>100000</v>
+        <v>35430</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="8">
-        <v>44256</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1">
-        <v>130</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>195000</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="8">
-        <v>44254</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8">
-        <v>44257</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1">
-        <v>100</v>
-      </c>
-      <c r="G5" s="1">
-        <v>147026</v>
-      </c>
-      <c r="H5" s="1">
-        <v>148075</v>
-      </c>
-      <c r="J5" s="1">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="8">
-        <v>44255</v>
-      </c>
-      <c r="M5" s="1">
-        <v>190000</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8">
-        <v>44265</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1">
-        <v>130</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>195000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>192498</v>
-      </c>
-      <c r="J6" s="1">
-        <v>4</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="8">
-        <v>44256</v>
-      </c>
-      <c r="M6" s="1">
-        <v>150000</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8">
-        <v>44292</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1">
-        <v>150</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>225000</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="8">
-        <v>44264</v>
-      </c>
-      <c r="M7" s="1">
-        <v>198100</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="8">
-        <v>44345</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1">
-        <v>75</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G8" s="1">
-        <f>E8*F8</f>
-        <v>112500</v>
-      </c>
-      <c r="J8" s="1">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="8">
-        <v>44292</v>
-      </c>
-      <c r="M8" s="1">
-        <v>139000</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="10:14">
-      <c r="J9" s="1">
-        <v>7</v>
-      </c>
-      <c r="L9" s="8">
-        <v>44338</v>
-      </c>
-      <c r="M9" s="1">
-        <v>75000</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="10:14">
-      <c r="J10" s="1">
-        <v>8</v>
-      </c>
-      <c r="L10" s="8">
-        <v>44342</v>
-      </c>
-      <c r="M10" s="1">
-        <v>71773</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="10:15">
-      <c r="J11" s="1">
-        <v>9</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="8">
-        <v>44349</v>
-      </c>
-      <c r="M11" s="1">
-        <v>35430</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="O3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:12">
+      <c r="C4" s="8"/>
+      <c r="I4" s="2"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:12">
+      <c r="C5" s="8"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:12">
+      <c r="C6" s="8"/>
+      <c r="I6" s="2"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:12">
+      <c r="C7" s="8"/>
+      <c r="I7" s="2"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:12">
+      <c r="C8" s="8"/>
+      <c r="I8" s="2"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="9:12">
+      <c r="I9" s="2"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="9:12">
+      <c r="I10" s="2"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="9:12">
+      <c r="I11" s="2"/>
+      <c r="L11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Inventory Order Book.xlsx
+++ b/Inventory Order Book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7965" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SIM" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
   <si>
     <t>S.No.</t>
   </si>
@@ -192,10 +192,13 @@
     <t>AXIR210964996618</t>
   </si>
   <si>
+    <t>112211078007567</t>
+  </si>
+  <si>
     <t>Commission</t>
   </si>
   <si>
-    <t>iTel phone</t>
+    <t>10 iTel phone</t>
   </si>
   <si>
     <t>115314249510</t>
@@ -203,15 +206,21 @@
   <si>
     <t>For i-tel mobile</t>
   </si>
+  <si>
+    <t>TJ/2122/1442</t>
+  </si>
+  <si>
+    <t>20 iTel phone</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -246,16 +255,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,7 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,14 +302,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -301,7 +310,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,11 +324,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,7 +339,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -348,29 +379,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,13 +394,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,7 +410,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,37 +455,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDD56E2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,13 +503,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,25 +533,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,13 +575,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,19 +611,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,43 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,6 +658,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -663,6 +741,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -671,84 +758,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,134 +781,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,10 +942,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -17846,10 +17864,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -17875,21 +17893,25 @@
       </c>
       <c r="C1" s="3">
         <f>N1-G1</f>
-        <v>197500</v>
+        <v>-23332</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="4">
         <f>SUM(E3:E530)</f>
-        <v>655</v>
+        <v>805</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="5">
         <f>SUM(G3:G538)</f>
-        <v>979526</v>
+        <v>1192205</v>
+      </c>
+      <c r="H1" s="11">
+        <f>C1+'iTel Phone'!C1</f>
+        <v>-92852</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="9" t="s">
@@ -17900,7 +17922,7 @@
       <c r="M1" s="9"/>
       <c r="N1" s="10">
         <f>SUM(M3:M555)</f>
-        <v>1177026</v>
+        <v>1168873</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -17948,7 +17970,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="8">
@@ -17961,11 +17983,11 @@
         <v>70</v>
       </c>
       <c r="F3" s="1">
-        <v>1500</v>
+        <v>1481</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G8" si="0">E3*F3</f>
-        <v>105000</v>
+        <f>E3*F3</f>
+        <v>103670</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -17979,13 +18001,13 @@
       <c r="N3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="11"/>
+      <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="8">
@@ -17998,11 +18020,11 @@
         <v>130</v>
       </c>
       <c r="F4" s="1">
-        <v>1500</v>
+        <v>1481</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>195000</v>
+        <f>E4*F4</f>
+        <v>192530</v>
       </c>
       <c r="J4" s="1">
         <v>2</v>
@@ -18019,13 +18041,13 @@
       <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="11"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="8">
@@ -18037,8 +18059,12 @@
       <c r="E5" s="1">
         <v>100</v>
       </c>
+      <c r="F5" s="1">
+        <v>1481</v>
+      </c>
       <c r="G5" s="1">
-        <v>147026</v>
+        <f>E5*F5</f>
+        <v>148100</v>
       </c>
       <c r="H5" s="1">
         <v>148075</v>
@@ -18073,11 +18099,11 @@
         <v>130</v>
       </c>
       <c r="F6" s="1">
-        <v>1500</v>
+        <v>1481</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>195000</v>
+        <f>E6*F6</f>
+        <v>192530</v>
       </c>
       <c r="H6" s="1">
         <v>192498</v>
@@ -18112,11 +18138,11 @@
         <v>150</v>
       </c>
       <c r="F7" s="1">
-        <v>1500</v>
+        <v>1481</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>225000</v>
+        <f>E7*F7</f>
+        <v>222150</v>
       </c>
       <c r="J7" s="1">
         <v>5</v>
@@ -18148,11 +18174,11 @@
         <v>75</v>
       </c>
       <c r="F8" s="1">
-        <v>1500</v>
+        <v>1481</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>112500</v>
+        <f>E8*F8</f>
+        <v>111075</v>
       </c>
       <c r="J8" s="1">
         <v>6</v>
@@ -18170,7 +18196,26 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="10:14">
+    <row r="9" spans="2:14">
+      <c r="B9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8">
+        <v>44383</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1">
+        <v>150</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1481</v>
+      </c>
+      <c r="G9" s="1">
+        <f>E9*F9</f>
+        <v>222150</v>
+      </c>
       <c r="J9" s="1">
         <v>7</v>
       </c>
@@ -18198,56 +18243,50 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="10:15">
+    <row r="11" spans="10:16">
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11" s="12">
+      <c r="L11" s="8">
+        <v>44371</v>
+      </c>
+      <c r="M11" s="1">
+        <v>100000</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="13">
         <v>3227</v>
       </c>
-      <c r="N11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11"/>
+      <c r="P11" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="12" spans="13:14">
-      <c r="M12" s="12">
+    <row r="12" spans="12:16">
+      <c r="L12" s="8">
+        <v>44380</v>
+      </c>
+      <c r="M12" s="1">
+        <v>105000</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="13">
         <v>4926</v>
       </c>
-      <c r="N12" s="12" t="s">
-        <v>36</v>
+      <c r="P12" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="12:14">
       <c r="L13" s="8">
-        <v>44371</v>
+        <v>44381</v>
       </c>
       <c r="M13" s="1">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="12:14">
-      <c r="L14" s="8">
-        <v>44380</v>
-      </c>
-      <c r="M14" s="1">
-        <v>105000</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="12:14">
-      <c r="L15" s="8">
-        <v>44381</v>
-      </c>
-      <c r="M15" s="1">
-        <v>30000</v>
-      </c>
-      <c r="N15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -18266,8 +18305,8 @@
   <sheetPr/>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -18293,21 +18332,21 @@
       </c>
       <c r="C1" s="3">
         <f>N1-G1</f>
-        <v>0</v>
+        <v>-69520</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="4">
         <f>SUM(E3:E530)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="5">
         <f>SUM(G3:G538)</f>
-        <v>35430</v>
+        <v>104950</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="9" t="s">
@@ -18371,7 +18410,7 @@
         <v>44349</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
@@ -18388,7 +18427,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L3" s="8">
         <v>44349</v>
@@ -18400,11 +18439,29 @@
         <v>26</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:12">
-      <c r="C4" s="8"/>
+    <row r="4" s="1" customFormat="1" spans="2:12">
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="8">
+        <v>44379</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3476</v>
+      </c>
+      <c r="G4" s="1">
+        <f>E4*F4</f>
+        <v>69520</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="L4" s="8"/>
     </row>
